--- a/Paris2024_metadata_and_conditions_copy.xlsx
+++ b/Paris2024_metadata_and_conditions_copy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex\Documents\CKC_extractOmegaGPSdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53CE5AC2-872A-43A1-AAB1-8F9EB01F2301}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62FE7FB7-D070-4B24-95D6-398839D06F0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="530" yWindow="1490" windowWidth="14400" windowHeight="8710" xr2:uid="{2F84EDC1-F00D-407C-8DDD-02E2992DA34A}"/>
+    <workbookView xWindow="2295" yWindow="2295" windowWidth="21600" windowHeight="11715" xr2:uid="{2F84EDC1-F00D-407C-8DDD-02E2992DA34A}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="77">
   <si>
     <t>Date</t>
   </si>
@@ -59,18 +59,6 @@
     <t>Start time</t>
   </si>
   <si>
-    <t>water temperature</t>
-  </si>
-  <si>
-    <t>wind speed</t>
-  </si>
-  <si>
-    <t>wind direction</t>
-  </si>
-  <si>
-    <t>wind station turned on time</t>
-  </si>
-  <si>
     <t>race_number</t>
   </si>
   <si>
@@ -177,6 +165,105 @@
   </si>
   <si>
     <t>QF</t>
+  </si>
+  <si>
+    <t>0026</t>
+  </si>
+  <si>
+    <t>WK1</t>
+  </si>
+  <si>
+    <t>0027</t>
+  </si>
+  <si>
+    <t>0028</t>
+  </si>
+  <si>
+    <t>0029</t>
+  </si>
+  <si>
+    <t>0030</t>
+  </si>
+  <si>
+    <t>0031</t>
+  </si>
+  <si>
+    <t>0032</t>
+  </si>
+  <si>
+    <t>MK1</t>
+  </si>
+  <si>
+    <t>0033</t>
+  </si>
+  <si>
+    <t>0034</t>
+  </si>
+  <si>
+    <t>0035</t>
+  </si>
+  <si>
+    <t>0036</t>
+  </si>
+  <si>
+    <t>0037</t>
+  </si>
+  <si>
+    <t>MC1</t>
+  </si>
+  <si>
+    <t>0038</t>
+  </si>
+  <si>
+    <t>0039</t>
+  </si>
+  <si>
+    <t>0040</t>
+  </si>
+  <si>
+    <t>0041</t>
+  </si>
+  <si>
+    <t>0042</t>
+  </si>
+  <si>
+    <t>0043</t>
+  </si>
+  <si>
+    <t>0044</t>
+  </si>
+  <si>
+    <t>0045</t>
+  </si>
+  <si>
+    <t>0046</t>
+  </si>
+  <si>
+    <t>0047</t>
+  </si>
+  <si>
+    <t>0048</t>
+  </si>
+  <si>
+    <t>0049</t>
+  </si>
+  <si>
+    <t>0050</t>
+  </si>
+  <si>
+    <t>0051</t>
+  </si>
+  <si>
+    <t>Water temp</t>
+  </si>
+  <si>
+    <t>Wind speed</t>
+  </si>
+  <si>
+    <t>Wind direction</t>
+  </si>
+  <si>
+    <t>Wind station turned on time</t>
   </si>
   <si>
     <t>Discipline</t>
@@ -186,6 +273,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="hh:mm:ss;@"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -225,7 +315,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -560,21 +650,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20021F04-AE92-45B2-9E53-FB30A0A225DA}">
-  <dimension ref="A1:M26"/>
+  <dimension ref="A1:M52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="17.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -583,7 +673,7 @@
         <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
@@ -601,42 +691,42 @@
         <v>5</v>
       </c>
       <c r="J1" t="s">
-        <v>7</v>
+        <v>72</v>
       </c>
       <c r="K1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L1" t="s">
+        <v>74</v>
+      </c>
+      <c r="M1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="B2" s="2">
-        <v>45510</v>
+        <v>45423</v>
       </c>
       <c r="C2" s="3">
         <v>0.39583333333333331</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E2">
         <v>500</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -645,33 +735,33 @@
         <v>25</v>
       </c>
       <c r="M2" s="3">
-        <v>0.39513888888888887</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+        <v>0.36944444444444446</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B3" s="2">
-        <v>45510</v>
+        <v>45423</v>
       </c>
       <c r="C3" s="3">
         <v>0.40277777777777779</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E3">
         <v>500</v>
       </c>
       <c r="F3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I3">
         <v>2</v>
@@ -680,33 +770,33 @@
         <v>25</v>
       </c>
       <c r="M3" s="3">
-        <v>0.39513888888888887</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+        <v>0.36944444444444446</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B4" s="2">
-        <v>45510</v>
+        <v>45423</v>
       </c>
       <c r="C4" s="3">
         <v>0.41666666666666669</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>500</v>
       </c>
       <c r="F4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -715,33 +805,33 @@
         <v>25</v>
       </c>
       <c r="M4" s="3">
-        <v>0.39513888888888887</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+        <v>0.36944444444444446</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B5" s="2">
-        <v>45510</v>
+        <v>45423</v>
       </c>
       <c r="C5" s="3">
         <v>0.4236111111111111</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>500</v>
       </c>
       <c r="F5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G5" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I5">
         <v>2</v>
@@ -750,33 +840,33 @@
         <v>25</v>
       </c>
       <c r="M5" s="3">
-        <v>0.39513888888888887</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+        <v>0.36944444444444446</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B6" s="2">
-        <v>45510</v>
+        <v>45423</v>
       </c>
       <c r="C6" s="3">
         <v>0.4375</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E6">
         <v>500</v>
       </c>
       <c r="F6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -785,33 +875,33 @@
         <v>25</v>
       </c>
       <c r="M6" s="3">
-        <v>0.39513888888888887</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+        <v>0.36944444444444446</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B7" s="2">
-        <v>45510</v>
+        <v>45423</v>
       </c>
       <c r="C7" s="3">
         <v>0.44444444444444442</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E7">
         <v>500</v>
       </c>
       <c r="F7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I7">
         <v>2</v>
@@ -820,33 +910,33 @@
         <v>25</v>
       </c>
       <c r="M7" s="3">
-        <v>0.39513888888888887</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+        <v>0.36944444444444446</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B8" s="2">
-        <v>45510</v>
+        <v>45423</v>
       </c>
       <c r="C8" s="3">
         <v>0.45833333333333331</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E8">
         <v>500</v>
       </c>
       <c r="F8" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G8" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H8" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -855,33 +945,33 @@
         <v>25</v>
       </c>
       <c r="M8" s="3">
-        <v>0.39513888888888887</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+        <v>0.36944444444444446</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B9" s="2">
-        <v>45510</v>
+        <v>45423</v>
       </c>
       <c r="C9" s="3">
         <v>0.46527777777777779</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E9">
         <v>500</v>
       </c>
       <c r="F9" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G9" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H9" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I9">
         <v>2</v>
@@ -890,33 +980,33 @@
         <v>25</v>
       </c>
       <c r="M9" s="3">
-        <v>0.39513888888888887</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+        <v>0.36944444444444446</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B10" s="2">
-        <v>45510</v>
+        <v>45423</v>
       </c>
       <c r="C10" s="3">
         <v>0.47916666666666669</v>
       </c>
       <c r="D10" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E10">
         <v>500</v>
       </c>
       <c r="F10" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H10" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -925,33 +1015,33 @@
         <v>25</v>
       </c>
       <c r="M10" s="3">
-        <v>0.39513888888888887</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+        <v>0.36944444444444446</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B11" s="2">
-        <v>45510</v>
+        <v>45423</v>
       </c>
       <c r="C11" s="3">
         <v>0.4861111111111111</v>
       </c>
       <c r="D11" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E11">
         <v>500</v>
       </c>
       <c r="F11" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G11" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H11" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I11">
         <v>2</v>
@@ -960,33 +1050,33 @@
         <v>25</v>
       </c>
       <c r="M11" s="3">
-        <v>0.39513888888888887</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+        <v>0.36944444444444446</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B12" s="2">
-        <v>45510</v>
+        <v>45423</v>
       </c>
       <c r="C12" s="3">
         <v>0.49305555555555558</v>
       </c>
       <c r="D12" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E12">
         <v>500</v>
       </c>
       <c r="F12" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G12" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H12" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I12">
         <v>3</v>
@@ -995,33 +1085,33 @@
         <v>25</v>
       </c>
       <c r="M12" s="3">
-        <v>0.39513888888888887</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+        <v>0.36944444444444446</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B13" s="2">
-        <v>45510</v>
+        <v>45423</v>
       </c>
       <c r="C13" s="3">
         <v>0.5</v>
       </c>
       <c r="D13" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E13">
         <v>500</v>
       </c>
       <c r="F13" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G13" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H13" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I13">
         <v>4</v>
@@ -1030,33 +1120,33 @@
         <v>25</v>
       </c>
       <c r="M13" s="3">
-        <v>0.39513888888888887</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+        <v>0.36944444444444446</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B14" s="2">
-        <v>45510</v>
+        <v>45423</v>
       </c>
       <c r="C14" s="3">
         <v>0.50694444444444442</v>
       </c>
       <c r="D14" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E14">
         <v>500</v>
       </c>
       <c r="F14" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G14" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H14" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -1065,33 +1155,33 @@
         <v>25</v>
       </c>
       <c r="M14" s="3">
-        <v>0.39513888888888887</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+        <v>0.36944444444444446</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B15" s="2">
-        <v>45510</v>
+        <v>45423</v>
       </c>
       <c r="C15" s="3">
         <v>0.51388888888888884</v>
       </c>
       <c r="D15" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E15">
         <v>500</v>
       </c>
       <c r="F15" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G15" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H15" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I15">
         <v>2</v>
@@ -1100,33 +1190,33 @@
         <v>25</v>
       </c>
       <c r="M15" s="3">
-        <v>0.39513888888888887</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+        <v>0.36944444444444446</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B16" s="2">
-        <v>45510</v>
+        <v>45423</v>
       </c>
       <c r="C16" s="3">
         <v>0.52083333333333337</v>
       </c>
       <c r="D16" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E16">
         <v>500</v>
       </c>
       <c r="F16" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G16" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H16" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I16">
         <v>3</v>
@@ -1135,33 +1225,33 @@
         <v>25</v>
       </c>
       <c r="M16" s="3">
-        <v>0.39513888888888887</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+        <v>0.36944444444444446</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B17" s="2">
-        <v>45510</v>
+        <v>45423</v>
       </c>
       <c r="C17" s="3">
         <v>0.52777777777777779</v>
       </c>
       <c r="D17" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E17">
         <v>500</v>
       </c>
       <c r="F17" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G17" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H17" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I17">
         <v>4</v>
@@ -1170,33 +1260,33 @@
         <v>25</v>
       </c>
       <c r="M17" s="3">
-        <v>0.39513888888888887</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+        <v>0.36944444444444446</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B18" s="2">
-        <v>45510</v>
+        <v>45423</v>
       </c>
       <c r="C18" s="3">
         <v>0.54861111111111116</v>
       </c>
       <c r="D18" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E18">
         <v>500</v>
       </c>
       <c r="F18" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G18" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H18" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I18">
         <v>1</v>
@@ -1205,33 +1295,33 @@
         <v>25</v>
       </c>
       <c r="M18" s="3">
-        <v>0.39513888888888887</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+        <v>0.36944444444444446</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B19" s="2">
-        <v>45510</v>
+        <v>45423</v>
       </c>
       <c r="C19" s="3">
         <v>0.55555555555555558</v>
       </c>
       <c r="D19" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E19">
         <v>500</v>
       </c>
       <c r="F19" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G19" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H19" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="I19">
         <v>1</v>
@@ -1240,33 +1330,33 @@
         <v>25</v>
       </c>
       <c r="M19" s="3">
-        <v>0.39513888888888887</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+        <v>0.36944444444444446</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B20" s="2">
-        <v>45510</v>
+        <v>45423</v>
       </c>
       <c r="C20" s="3">
         <v>0.5625</v>
       </c>
       <c r="D20" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E20">
         <v>500</v>
       </c>
       <c r="F20" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G20" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H20" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="I20">
         <v>2</v>
@@ -1275,33 +1365,33 @@
         <v>25</v>
       </c>
       <c r="M20" s="3">
-        <v>0.39513888888888887</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+        <v>0.36944444444444446</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B21" s="2">
-        <v>45510</v>
+        <v>45423</v>
       </c>
       <c r="C21" s="3">
         <v>0.57638888888888884</v>
       </c>
       <c r="D21" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E21">
         <v>500</v>
       </c>
       <c r="F21" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G21" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H21" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="I21">
         <v>1</v>
@@ -1310,33 +1400,33 @@
         <v>25</v>
       </c>
       <c r="M21" s="3">
-        <v>0.39513888888888887</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+        <v>0.36944444444444446</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B22" s="2">
-        <v>45510</v>
+        <v>45423</v>
       </c>
       <c r="C22" s="3">
         <v>0.58333333333333337</v>
       </c>
       <c r="D22" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E22">
         <v>500</v>
       </c>
       <c r="F22" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G22" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H22" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="I22">
         <v>2</v>
@@ -1345,33 +1435,33 @@
         <v>25</v>
       </c>
       <c r="M22" s="3">
-        <v>0.39513888888888887</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+        <v>0.36944444444444446</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B23" s="2">
-        <v>45510</v>
+        <v>45423</v>
       </c>
       <c r="C23" s="3">
         <v>0.59027777777777779</v>
       </c>
       <c r="D23" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E23">
         <v>500</v>
       </c>
       <c r="F23" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G23" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H23" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="I23">
         <v>1</v>
@@ -1380,33 +1470,33 @@
         <v>25</v>
       </c>
       <c r="M23" s="3">
-        <v>0.39513888888888887</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+        <v>0.36944444444444446</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B24" s="2">
-        <v>45510</v>
+        <v>45423</v>
       </c>
       <c r="C24" s="3">
         <v>0.59722222222222221</v>
       </c>
       <c r="D24" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E24">
         <v>500</v>
       </c>
       <c r="F24" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G24" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H24" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="I24">
         <v>2</v>
@@ -1415,33 +1505,33 @@
         <v>25</v>
       </c>
       <c r="M24" s="3">
-        <v>0.39513888888888887</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+        <v>0.36944444444444446</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B25" s="2">
-        <v>45510</v>
+        <v>45423</v>
       </c>
       <c r="C25" s="3">
         <v>0.60416666666666663</v>
       </c>
       <c r="D25" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E25">
         <v>500</v>
       </c>
       <c r="F25" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G25" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H25" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="I25">
         <v>1</v>
@@ -1450,33 +1540,33 @@
         <v>25</v>
       </c>
       <c r="M25" s="3">
-        <v>0.39513888888888887</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+        <v>0.36944444444444446</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B26" s="2">
-        <v>45510</v>
+        <v>45423</v>
       </c>
       <c r="C26" s="3">
         <v>0.61111111111111116</v>
       </c>
       <c r="D26" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E26">
         <v>500</v>
       </c>
       <c r="F26" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G26" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H26" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="I26">
         <v>2</v>
@@ -1485,6 +1575,916 @@
         <v>25</v>
       </c>
       <c r="M26" s="3">
+        <v>0.36944444444444446</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" s="2">
+        <v>45424</v>
+      </c>
+      <c r="C27" s="3">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D27" t="s">
+        <v>44</v>
+      </c>
+      <c r="E27">
+        <v>500</v>
+      </c>
+      <c r="F27" t="s">
+        <v>27</v>
+      </c>
+      <c r="G27" t="s">
+        <v>28</v>
+      </c>
+      <c r="H27" t="s">
+        <v>29</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <v>24.3</v>
+      </c>
+      <c r="M27" s="3">
+        <v>0.39513888888888887</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B28" s="2">
+        <v>45424</v>
+      </c>
+      <c r="C28" s="3">
+        <v>0.40277777777777779</v>
+      </c>
+      <c r="D28" t="s">
+        <v>44</v>
+      </c>
+      <c r="E28">
+        <v>500</v>
+      </c>
+      <c r="F28" t="s">
+        <v>27</v>
+      </c>
+      <c r="G28" t="s">
+        <v>28</v>
+      </c>
+      <c r="H28" t="s">
+        <v>29</v>
+      </c>
+      <c r="I28">
+        <v>2</v>
+      </c>
+      <c r="J28">
+        <v>24.3</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0.39513888888888887</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29" s="2">
+        <v>45424</v>
+      </c>
+      <c r="C29" s="3">
+        <v>0.40972222222222221</v>
+      </c>
+      <c r="D29" t="s">
+        <v>44</v>
+      </c>
+      <c r="E29">
+        <v>500</v>
+      </c>
+      <c r="F29" t="s">
+        <v>27</v>
+      </c>
+      <c r="G29" t="s">
+        <v>28</v>
+      </c>
+      <c r="H29" t="s">
+        <v>29</v>
+      </c>
+      <c r="I29">
+        <v>3</v>
+      </c>
+      <c r="J29">
+        <v>24.3</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0.39513888888888887</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B30" s="2">
+        <v>45424</v>
+      </c>
+      <c r="C30" s="3">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D30" t="s">
+        <v>44</v>
+      </c>
+      <c r="E30">
+        <v>500</v>
+      </c>
+      <c r="F30" t="s">
+        <v>27</v>
+      </c>
+      <c r="G30" t="s">
+        <v>28</v>
+      </c>
+      <c r="H30" t="s">
+        <v>29</v>
+      </c>
+      <c r="I30">
+        <v>4</v>
+      </c>
+      <c r="J30">
+        <v>24.3</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0.39513888888888887</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B31" s="2">
+        <v>45424</v>
+      </c>
+      <c r="C31" s="3">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="D31" t="s">
+        <v>44</v>
+      </c>
+      <c r="E31">
+        <v>500</v>
+      </c>
+      <c r="F31" t="s">
+        <v>27</v>
+      </c>
+      <c r="G31" t="s">
+        <v>28</v>
+      </c>
+      <c r="H31" t="s">
+        <v>29</v>
+      </c>
+      <c r="I31">
+        <v>5</v>
+      </c>
+      <c r="J31">
+        <v>24.3</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0.39513888888888887</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B32" s="2">
+        <v>45424</v>
+      </c>
+      <c r="C32" s="3">
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="D32" t="s">
+        <v>44</v>
+      </c>
+      <c r="E32">
+        <v>500</v>
+      </c>
+      <c r="F32" t="s">
+        <v>27</v>
+      </c>
+      <c r="G32" t="s">
+        <v>28</v>
+      </c>
+      <c r="H32" t="s">
+        <v>29</v>
+      </c>
+      <c r="I32">
+        <v>6</v>
+      </c>
+      <c r="J32">
+        <v>24.3</v>
+      </c>
+      <c r="M32" s="3">
+        <v>0.39513888888888887</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" s="2">
+        <v>45424</v>
+      </c>
+      <c r="C33" s="3">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="D33" t="s">
+        <v>51</v>
+      </c>
+      <c r="E33">
+        <v>1000</v>
+      </c>
+      <c r="F33" t="s">
+        <v>27</v>
+      </c>
+      <c r="G33" t="s">
+        <v>28</v>
+      </c>
+      <c r="H33" t="s">
+        <v>29</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <v>24.3</v>
+      </c>
+      <c r="M33" s="3">
+        <v>0.39513888888888887</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B34" s="2">
+        <v>45424</v>
+      </c>
+      <c r="C34" s="3">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="D34" t="s">
+        <v>51</v>
+      </c>
+      <c r="E34">
+        <v>1000</v>
+      </c>
+      <c r="F34" t="s">
+        <v>27</v>
+      </c>
+      <c r="G34" t="s">
+        <v>28</v>
+      </c>
+      <c r="H34" t="s">
+        <v>29</v>
+      </c>
+      <c r="I34">
+        <v>2</v>
+      </c>
+      <c r="J34">
+        <v>24.3</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0.39513888888888887</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B35" s="2">
+        <v>45424</v>
+      </c>
+      <c r="C35" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D35" t="s">
+        <v>51</v>
+      </c>
+      <c r="E35">
+        <v>1000</v>
+      </c>
+      <c r="F35" t="s">
+        <v>27</v>
+      </c>
+      <c r="G35" t="s">
+        <v>28</v>
+      </c>
+      <c r="H35" t="s">
+        <v>29</v>
+      </c>
+      <c r="I35">
+        <v>3</v>
+      </c>
+      <c r="J35">
+        <v>24.3</v>
+      </c>
+      <c r="M35" s="3">
+        <v>0.39513888888888887</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B36" s="2">
+        <v>45424</v>
+      </c>
+      <c r="C36" s="3">
+        <v>0.46527777777777779</v>
+      </c>
+      <c r="D36" t="s">
+        <v>51</v>
+      </c>
+      <c r="E36">
+        <v>1000</v>
+      </c>
+      <c r="F36" t="s">
+        <v>27</v>
+      </c>
+      <c r="G36" t="s">
+        <v>28</v>
+      </c>
+      <c r="H36" t="s">
+        <v>29</v>
+      </c>
+      <c r="I36">
+        <v>4</v>
+      </c>
+      <c r="J36">
+        <v>24.3</v>
+      </c>
+      <c r="M36" s="3">
+        <v>0.39513888888888887</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B37" s="2">
+        <v>45424</v>
+      </c>
+      <c r="C37" s="3">
+        <v>0.47222222222222221</v>
+      </c>
+      <c r="D37" t="s">
+        <v>51</v>
+      </c>
+      <c r="E37">
+        <v>1000</v>
+      </c>
+      <c r="F37" t="s">
+        <v>27</v>
+      </c>
+      <c r="G37" t="s">
+        <v>28</v>
+      </c>
+      <c r="H37" t="s">
+        <v>29</v>
+      </c>
+      <c r="I37">
+        <v>5</v>
+      </c>
+      <c r="J37">
+        <v>24.3</v>
+      </c>
+      <c r="M37" s="3">
+        <v>0.39513888888888887</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B38" s="2">
+        <v>45424</v>
+      </c>
+      <c r="C38" s="3">
+        <v>0.4861111111111111</v>
+      </c>
+      <c r="D38" t="s">
+        <v>57</v>
+      </c>
+      <c r="E38">
+        <v>1000</v>
+      </c>
+      <c r="F38" t="s">
+        <v>27</v>
+      </c>
+      <c r="G38" t="s">
+        <v>28</v>
+      </c>
+      <c r="H38" t="s">
+        <v>29</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+      <c r="J38">
+        <v>24.3</v>
+      </c>
+      <c r="M38" s="3">
+        <v>0.39513888888888887</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B39" s="2">
+        <v>45424</v>
+      </c>
+      <c r="C39" s="3">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="D39" t="s">
+        <v>57</v>
+      </c>
+      <c r="E39">
+        <v>1000</v>
+      </c>
+      <c r="F39" t="s">
+        <v>27</v>
+      </c>
+      <c r="G39" t="s">
+        <v>28</v>
+      </c>
+      <c r="H39" t="s">
+        <v>29</v>
+      </c>
+      <c r="I39">
+        <v>2</v>
+      </c>
+      <c r="J39">
+        <v>24.3</v>
+      </c>
+      <c r="M39" s="3">
+        <v>0.39513888888888887</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B40" s="2">
+        <v>45424</v>
+      </c>
+      <c r="C40" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D40" t="s">
+        <v>57</v>
+      </c>
+      <c r="E40">
+        <v>1000</v>
+      </c>
+      <c r="F40" t="s">
+        <v>27</v>
+      </c>
+      <c r="G40" t="s">
+        <v>28</v>
+      </c>
+      <c r="H40" t="s">
+        <v>29</v>
+      </c>
+      <c r="I40">
+        <v>3</v>
+      </c>
+      <c r="J40">
+        <v>24.3</v>
+      </c>
+      <c r="M40" s="3">
+        <v>0.39513888888888887</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B41" s="2">
+        <v>45424</v>
+      </c>
+      <c r="C41" s="3">
+        <v>0.50694444444444442</v>
+      </c>
+      <c r="D41" t="s">
+        <v>57</v>
+      </c>
+      <c r="E41">
+        <v>1000</v>
+      </c>
+      <c r="F41" t="s">
+        <v>27</v>
+      </c>
+      <c r="G41" t="s">
+        <v>28</v>
+      </c>
+      <c r="H41" t="s">
+        <v>29</v>
+      </c>
+      <c r="I41">
+        <v>4</v>
+      </c>
+      <c r="J41">
+        <v>24.3</v>
+      </c>
+      <c r="M41" s="3">
+        <v>0.39513888888888887</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B42" s="2">
+        <v>45424</v>
+      </c>
+      <c r="C42" s="3">
+        <v>0.51388888888888884</v>
+      </c>
+      <c r="D42" t="s">
+        <v>57</v>
+      </c>
+      <c r="E42">
+        <v>1000</v>
+      </c>
+      <c r="F42" t="s">
+        <v>27</v>
+      </c>
+      <c r="G42" t="s">
+        <v>28</v>
+      </c>
+      <c r="H42" t="s">
+        <v>29</v>
+      </c>
+      <c r="I42">
+        <v>5</v>
+      </c>
+      <c r="J42">
+        <v>24.3</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0.39513888888888887</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B43" s="2">
+        <v>45424</v>
+      </c>
+      <c r="C43" s="3">
+        <v>0.5625</v>
+      </c>
+      <c r="D43" t="s">
+        <v>44</v>
+      </c>
+      <c r="E43">
+        <v>500</v>
+      </c>
+      <c r="F43" t="s">
+        <v>27</v>
+      </c>
+      <c r="G43" t="s">
+        <v>28</v>
+      </c>
+      <c r="H43" t="s">
+        <v>42</v>
+      </c>
+      <c r="I43">
+        <v>1</v>
+      </c>
+      <c r="J43">
+        <v>24.3</v>
+      </c>
+      <c r="M43" s="3">
+        <v>0.39513888888888887</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B44" s="2">
+        <v>45424</v>
+      </c>
+      <c r="C44" s="3">
+        <v>0.56944444444444442</v>
+      </c>
+      <c r="D44" t="s">
+        <v>44</v>
+      </c>
+      <c r="E44">
+        <v>500</v>
+      </c>
+      <c r="F44" t="s">
+        <v>27</v>
+      </c>
+      <c r="G44" t="s">
+        <v>28</v>
+      </c>
+      <c r="H44" t="s">
+        <v>42</v>
+      </c>
+      <c r="I44">
+        <v>2</v>
+      </c>
+      <c r="J44">
+        <v>24.3</v>
+      </c>
+      <c r="M44" s="3">
+        <v>0.39513888888888887</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B45" s="2">
+        <v>45424</v>
+      </c>
+      <c r="C45" s="3">
+        <v>0.57638888888888884</v>
+      </c>
+      <c r="D45" t="s">
+        <v>44</v>
+      </c>
+      <c r="E45">
+        <v>500</v>
+      </c>
+      <c r="F45" t="s">
+        <v>27</v>
+      </c>
+      <c r="G45" t="s">
+        <v>28</v>
+      </c>
+      <c r="H45" t="s">
+        <v>42</v>
+      </c>
+      <c r="I45">
+        <v>3</v>
+      </c>
+      <c r="J45">
+        <v>24.3</v>
+      </c>
+      <c r="M45" s="3">
+        <v>0.39513888888888887</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B46" s="2">
+        <v>45424</v>
+      </c>
+      <c r="C46" s="3">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D46" t="s">
+        <v>44</v>
+      </c>
+      <c r="E46">
+        <v>500</v>
+      </c>
+      <c r="F46" t="s">
+        <v>27</v>
+      </c>
+      <c r="G46" t="s">
+        <v>28</v>
+      </c>
+      <c r="H46" t="s">
+        <v>42</v>
+      </c>
+      <c r="I46">
+        <v>4</v>
+      </c>
+      <c r="J46">
+        <v>24.3</v>
+      </c>
+      <c r="M46" s="3">
+        <v>0.39513888888888887</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B47" s="2">
+        <v>45424</v>
+      </c>
+      <c r="C47" s="3">
+        <v>0.59027777777777779</v>
+      </c>
+      <c r="D47" t="s">
+        <v>51</v>
+      </c>
+      <c r="E47">
+        <v>1000</v>
+      </c>
+      <c r="F47" t="s">
+        <v>27</v>
+      </c>
+      <c r="G47" t="s">
+        <v>28</v>
+      </c>
+      <c r="H47" t="s">
+        <v>42</v>
+      </c>
+      <c r="I47">
+        <v>1</v>
+      </c>
+      <c r="J47">
+        <v>24.3</v>
+      </c>
+      <c r="M47" s="3">
+        <v>0.39513888888888887</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B48" s="2">
+        <v>45424</v>
+      </c>
+      <c r="C48" s="3">
+        <v>0.59722222222222221</v>
+      </c>
+      <c r="D48" t="s">
+        <v>51</v>
+      </c>
+      <c r="E48">
+        <v>1000</v>
+      </c>
+      <c r="F48" t="s">
+        <v>27</v>
+      </c>
+      <c r="G48" t="s">
+        <v>28</v>
+      </c>
+      <c r="H48" t="s">
+        <v>42</v>
+      </c>
+      <c r="I48">
+        <v>2</v>
+      </c>
+      <c r="J48">
+        <v>24.3</v>
+      </c>
+      <c r="M48" s="3">
+        <v>0.39513888888888887</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B49" s="2">
+        <v>45424</v>
+      </c>
+      <c r="C49" s="3">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="D49" t="s">
+        <v>51</v>
+      </c>
+      <c r="E49">
+        <v>1000</v>
+      </c>
+      <c r="F49" t="s">
+        <v>27</v>
+      </c>
+      <c r="G49" t="s">
+        <v>28</v>
+      </c>
+      <c r="H49" t="s">
+        <v>42</v>
+      </c>
+      <c r="I49">
+        <v>3</v>
+      </c>
+      <c r="J49">
+        <v>24.3</v>
+      </c>
+      <c r="M49" s="3">
+        <v>0.39513888888888887</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B50" s="2">
+        <v>45424</v>
+      </c>
+      <c r="C50" s="3">
+        <v>0.61111111111111116</v>
+      </c>
+      <c r="D50" t="s">
+        <v>57</v>
+      </c>
+      <c r="E50">
+        <v>1000</v>
+      </c>
+      <c r="F50" t="s">
+        <v>27</v>
+      </c>
+      <c r="G50" t="s">
+        <v>28</v>
+      </c>
+      <c r="H50" t="s">
+        <v>42</v>
+      </c>
+      <c r="I50">
+        <v>1</v>
+      </c>
+      <c r="J50">
+        <v>24.3</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0.39513888888888887</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B51" s="2">
+        <v>45424</v>
+      </c>
+      <c r="C51" s="3">
+        <v>0.61805555555555558</v>
+      </c>
+      <c r="D51" t="s">
+        <v>57</v>
+      </c>
+      <c r="E51">
+        <v>1000</v>
+      </c>
+      <c r="F51" t="s">
+        <v>27</v>
+      </c>
+      <c r="G51" t="s">
+        <v>28</v>
+      </c>
+      <c r="H51" t="s">
+        <v>42</v>
+      </c>
+      <c r="I51">
+        <v>2</v>
+      </c>
+      <c r="J51">
+        <v>24.3</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0.39513888888888887</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B52" s="2">
+        <v>45424</v>
+      </c>
+      <c r="C52" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="D52" t="s">
+        <v>57</v>
+      </c>
+      <c r="E52">
+        <v>1000</v>
+      </c>
+      <c r="F52" t="s">
+        <v>27</v>
+      </c>
+      <c r="G52" t="s">
+        <v>28</v>
+      </c>
+      <c r="H52" t="s">
+        <v>42</v>
+      </c>
+      <c r="I52">
+        <v>3</v>
+      </c>
+      <c r="J52">
+        <v>24.3</v>
+      </c>
+      <c r="M52" s="3">
         <v>0.39513888888888887</v>
       </c>
     </row>
